--- a/Carrick_AutomatedTest/Carrick_Automation/TestData/CablingDataSet/CablingDataSet_16Channel/3U3I.xlsx
+++ b/Carrick_AutomatedTest/Carrick_Automation/TestData/CablingDataSet/CablingDataSet_16Channel/3U3I.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5101BFD-A584-41DA-BB08-663BCDB185AC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED1E8DE-F774-4FAE-8D54-32BADFDAC550}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DeviceInfo" sheetId="3" r:id="rId1"/>
@@ -425,13 +425,13 @@
     <t>10.75.58.66</t>
   </si>
   <si>
-    <t>sn414638044_3U_15I.cal</t>
-  </si>
-  <si>
     <t>IDM-E</t>
   </si>
   <si>
     <t>IDC-DAU-66</t>
+  </si>
+  <si>
+    <t>3U_13I.cal</t>
   </si>
 </sst>
 </file>
@@ -753,7 +753,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D2"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -781,13 +781,13 @@
         <v>132</v>
       </c>
       <c r="B2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" t="s">
         <v>133</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>134</v>
-      </c>
-      <c r="D2" t="s">
-        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/Carrick_AutomatedTest/Carrick_Automation/TestData/CablingDataSet/CablingDataSet_16Channel/3U3I.xlsx
+++ b/Carrick_AutomatedTest/Carrick_Automation/TestData/CablingDataSet/CablingDataSet_16Channel/3U3I.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED1E8DE-F774-4FAE-8D54-32BADFDAC550}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F868806D-08E4-4AAA-BB4E-BECDB64C4F55}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DeviceInfo" sheetId="3" r:id="rId1"/>
@@ -752,7 +752,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -801,7 +801,7 @@
   <dimension ref="A1:AB23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8:G19"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1602,7 +1602,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1692,8 +1692,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39:G40"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1818,7 +1818,7 @@
         <v>94</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -1826,7 +1826,7 @@
         <v>95</v>
       </c>
       <c r="B16">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -1842,7 +1842,7 @@
         <v>97</v>
       </c>
       <c r="B18">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -1850,7 +1850,7 @@
         <v>98</v>
       </c>
       <c r="B19">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -1858,7 +1858,7 @@
         <v>99</v>
       </c>
       <c r="B20">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -1866,7 +1866,7 @@
         <v>100</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -1874,7 +1874,7 @@
         <v>101</v>
       </c>
       <c r="B22">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -1890,7 +1890,7 @@
         <v>103</v>
       </c>
       <c r="B24">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -1898,7 +1898,7 @@
         <v>104</v>
       </c>
       <c r="B25">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -1906,7 +1906,7 @@
         <v>105</v>
       </c>
       <c r="B26">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -1914,7 +1914,7 @@
         <v>106</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -1922,7 +1922,7 @@
         <v>107</v>
       </c>
       <c r="B28">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -1938,7 +1938,7 @@
         <v>109</v>
       </c>
       <c r="B30">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -1946,7 +1946,7 @@
         <v>110</v>
       </c>
       <c r="B31">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -1954,7 +1954,7 @@
         <v>111</v>
       </c>
       <c r="B32">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -1970,7 +1970,7 @@
         <v>113</v>
       </c>
       <c r="B34">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -1986,7 +1986,7 @@
         <v>115</v>
       </c>
       <c r="B36">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -2018,7 +2018,7 @@
         <v>119</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -2039,8 +2039,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Carrick_AutomatedTest/Carrick_Automation/TestData/CablingDataSet/CablingDataSet_16Channel/3U3I.xlsx
+++ b/Carrick_AutomatedTest/Carrick_Automation/TestData/CablingDataSet/CablingDataSet_16Channel/3U3I.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F868806D-08E4-4AAA-BB4E-BECDB64C4F55}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C12FB4A0-F085-4CD1-ABF8-248C206B2A09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28740" yWindow="-60" windowWidth="25320" windowHeight="15870" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DeviceInfo" sheetId="3" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="134">
   <si>
     <t>Channel</t>
   </si>
@@ -414,12 +414,6 @@
   </si>
   <si>
     <t>DeviceName</t>
-  </si>
-  <si>
-    <t>DSP_1_Feeder_Map_3</t>
-  </si>
-  <si>
-    <t>DSP_2_Feeder_Map_3</t>
   </si>
   <si>
     <t>10.75.58.66</t>
@@ -778,16 +772,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D2" t="s">
         <v>132</v>
-      </c>
-      <c r="B2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D2" t="s">
-        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -1599,9 +1593,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9E56E73-AB10-47AF-A93B-ABE15047B529}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -1644,41 +1638,25 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B5">
-        <v>-1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>127</v>
-      </c>
-      <c r="B8">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>131</v>
-      </c>
-      <c r="B9">
         <v>-1</v>
       </c>
     </row>
@@ -2039,7 +2017,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
